--- a/people.xlsx
+++ b/people.xlsx
@@ -30,9 +30,6 @@
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="12.81pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro2" style:family="table-row">
-      <style:table-row-properties style:row-height="12.84pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
@@ -58,39 +55,7 @@
             <text:p>interest</text:p>
           </table:table-cell>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>John</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Smith</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:a xlink:href="mailto:0yhxadcw@freeml.net" xlink:type="simple">0yhxadcw@freeml.net</text:a>
-            </text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>murder</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Marry</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Ann</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:a xlink:href="mailto:bkbebmzic@emlhub.com" xlink:type="simple">bkbebmzic@emlhub.com</text:a>
-            </text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>science</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Dmitri</text:p>
           </table:table-cell>
@@ -117,11 +82,11 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2021-04-03T16:50:55.320000000</meta:creation-date>
-    <dc:date>2021-04-03T19:36:54.941000000</dc:date>
-    <meta:editing-duration>PT1H26M41S</meta:editing-duration>
-    <meta:editing-cycles>7</meta:editing-cycles>
+    <dc:date>2021-04-03T20:21:16.905000000</dc:date>
+    <meta:editing-duration>PT1H27M2S</meta:editing-duration>
+    <meta:editing-cycles>8</meta:editing-cycles>
     <meta:generator>Neat_Office/6.2.8.2$Windows_x86 LibreOffice_project/</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="16" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="8" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -133,14 +98,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">13260</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">1811</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">903</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">3</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">6</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">10</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -613,7 +578,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2021-04-03">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="19:05:14.384000000">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="20:20:55.862000000">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
